--- a/HK Loans Application.xlsx
+++ b/HK Loans Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenmo/Desktop/Ivan Python/ivan python excel/p2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C659B5B-4150-2546-860E-4F4A1488D68B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA795B71-F22D-2344-97A1-3AFFAE7B0DB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{BC072424-DE91-9145-BCE4-2B086F25BB6F}"/>
   </bookViews>
@@ -478,14 +478,15 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="7" width="16.5" customWidth="1"/>
+    <col min="4" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -508,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -531,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -554,10 +555,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -577,10 +578,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -591,10 +592,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -614,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -628,10 +629,10 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -651,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -674,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -688,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -711,10 +712,10 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -734,10 +735,10 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -757,10 +758,10 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
